--- a/medicine/Handicap/Jacques_Lebreton/Jacques_Lebreton.xlsx
+++ b/medicine/Handicap/Jacques_Lebreton/Jacques_Lebreton.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jacques Lebreton (pseudonyme de Jacques Beaugé) est un écrivain français, né le 9 février 1922 à Brest et mort le 2 avril 2006[1] à Paris 7e.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jacques Lebreton (pseudonyme de Jacques Beaugé) est un écrivain français, né le 9 février 1922 à Brest et mort le 2 avril 2006 à Paris 7e.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Septième d’une famille de neuf enfants, il passe son enfance au Relecq-Kerhuon au manoir familial de Lossulien.
 Au début de la Seconde Guerre mondiale, dès l’été 1940, il s’engage dans les Forces françaises libres à Londres avec son frère Henri (1920-2015), devenu par la suite Compagnon de la Libération. Il est au 1er régiment de marche de spahis marocains quand il est très gravement blessé le 5 novembre 1942, dans le désert de Libye après la seconde bataille d'El Alamein. Une grenade passée par un camarade et dégoupillée par erreur lui explose dans les mains : il perd ses mains et devient aveugle.
@@ -546,17 +560,19 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Ouvrages
-Sans yeux et sans mains, Paris, Casterman, 1966  (ISBN 2-203-21113-X).
+          <t>Ouvrages</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Sans yeux et sans mains, Paris, Casterman, 1966  (ISBN 2-203-21113-X).
 Sans les mains, 1972.
 Celui qui croyait à ses yeux et à ses mains, Paris, 1985.
 Témoins de l’invisible, Nouvelle Cité, 1985  (ISBN 2-85313-100-9).
 La pire des infirmités c’est de se couper de Dieu, Mesnil-Saint-Loup, Éd. du Livre ouvert, 1994, 60 p.  (ISBN 2-907429-36-1).
 Pour toi qui as soif, avec Françoise Lemaire, Paris, Le Sarment-Fayard, 1999, 259 p.  (ISBN 2-86679-266-1).
-Condamnés à l’espérance : testament spirituel, Presses de la Renaissance, 2004, 397 p.  (ISBN 2856169996).
-Prières
-Louange pour la délivrance [lire en ligne]
-Louange pour la Joie que Dieu donne [lire en ligne]</t>
+Condamnés à l’espérance : testament spirituel, Presses de la Renaissance, 2004, 397 p.  (ISBN 2856169996).</t>
         </is>
       </c>
     </row>
@@ -581,10 +597,49 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Prières</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Louange pour la délivrance [lire en ligne]
+Louange pour la Joie que Dieu donne [lire en ligne]</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Jacques_Lebreton</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jacques_Lebreton</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Distinction</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve"> Commandeur de la Légion d'honneur</t>
         </is>
